--- a/Компьютерное моделирование/Компьютерное моделирование  Lab7.xlsx
+++ b/Компьютерное моделирование/Компьютерное моделирование  Lab7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\el5ah\Documents\Minig Univer\Компьютерное моделирование\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E3AF84-40EF-4D6C-B6E1-ADDCB701D7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8ED605B-0805-45DE-9EF7-85A64BCBB960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,115 +33,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Cr_воды</t>
   </si>
   <si>
     <t>Cr_волос ы</t>
   </si>
-  <si>
-    <t>0,0012</t>
-  </si>
-  <si>
-    <t>0,600</t>
-  </si>
-  <si>
-    <t>0,0005</t>
-  </si>
-  <si>
-    <t>0,050</t>
-  </si>
-  <si>
-    <t>0,0007</t>
-  </si>
-  <si>
-    <t>0,022</t>
-  </si>
-  <si>
-    <t>0,001</t>
-  </si>
-  <si>
-    <t>0,570</t>
-  </si>
-  <si>
-    <t>0,0018</t>
-  </si>
-  <si>
-    <t>0,0008</t>
-  </si>
-  <si>
-    <t>0,0017</t>
-  </si>
-  <si>
-    <t>0,630</t>
-  </si>
-  <si>
-    <t>0,0022</t>
-  </si>
-  <si>
-    <t>2,54</t>
-  </si>
-  <si>
-    <t>0,3</t>
-  </si>
-  <si>
-    <t>0,0019</t>
-  </si>
-  <si>
-    <t>0,005</t>
-  </si>
-  <si>
-    <t>0,003</t>
-  </si>
-  <si>
-    <t>1,54</t>
-  </si>
-  <si>
-    <t>0,007</t>
-  </si>
-  <si>
-    <t>0,0033</t>
-  </si>
-  <si>
-    <t>0,490</t>
-  </si>
-  <si>
-    <t>0,200</t>
-  </si>
-  <si>
-    <t>0,0037</t>
-  </si>
-  <si>
-    <t>0,444</t>
-  </si>
-  <si>
-    <t>0,006</t>
-  </si>
-  <si>
-    <t>0,310</t>
-  </si>
-  <si>
-    <t>0,76</t>
-  </si>
-  <si>
-    <t>0,002</t>
-  </si>
-  <si>
-    <t>0,33</t>
-  </si>
-  <si>
-    <t>1,13</t>
-  </si>
-  <si>
-    <t>0,300</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -149,35 +53,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="5"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="5.5"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -239,26 +132,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,21 +289,22 @@
             <c:dispEq val="0"/>
           </c:trendline>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'lab6'!$A$2:$A$7</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="1">
-                  <c:v>0,0012</c:v>
+                  <c:v>1.1999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0,0012</c:v>
+                  <c:v>1.1999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0,0005</c:v>
+                  <c:v>5.0000000000000001E-4</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -424,13 +313,13 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="1">
-                  <c:v>1032</c:v>
+                  <c:v>1.032</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1080</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -866,15 +755,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B58"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -882,64 +771,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1.032</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-    </row>
-    <row r="7" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6">
-        <v>1080</v>
+    <row r="5" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1.08</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>5</v>
+      <c r="A9" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="6">
-        <v>1626</v>
+      <c r="A11" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1.6259999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -947,11 +836,11 @@
       <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="6">
-        <v>4520</v>
+      <c r="A13" s="3">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="B13" s="4">
+        <v>4.5199999999999996</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -959,11 +848,11 @@
       <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="6">
-        <v>2080</v>
+      <c r="A15" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2.08</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -971,47 +860,47 @@
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>9</v>
+      <c r="A17" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="6">
-        <v>2636</v>
+      <c r="A19" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="B19" s="4">
+        <v>2.6360000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="6">
-        <v>1056</v>
+      <c r="A21" s="3">
+        <v>1.8E-3</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1.056</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="6">
-        <v>1438</v>
+      <c r="A23" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1.4379999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1019,11 +908,11 @@
       <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="6">
-        <v>1945</v>
+      <c r="A25" s="3">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1.9450000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1031,11 +920,11 @@
       <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>13</v>
+      <c r="A27" s="3">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.63</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1043,47 +932,47 @@
       <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>15</v>
+      <c r="A29" s="3">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2.54</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>16</v>
+      <c r="A31" s="3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.3</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="6">
-        <v>1100</v>
+      <c r="A33" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>20</v>
+      <c r="A35" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1.54</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1091,8 +980,8 @@
       <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>21</v>
+      <c r="A37" s="3">
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="B37" s="3">
         <v>1</v>
@@ -1103,11 +992,11 @@
       <c r="B38" s="2"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>23</v>
+      <c r="A39" s="3">
+        <v>3.3E-3</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0.49</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1115,117 +1004,126 @@
       <c r="B40" s="2"/>
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>24</v>
+      <c r="A41" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0.2</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>26</v>
+      <c r="A43" s="3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0.44400000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="4"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="3"/>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45" s="5"/>
+      <c r="A45" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="B45" s="3"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
-      <c r="B46" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="A46" s="2"/>
+      <c r="B46" s="3"/>
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="B47" s="3">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
-      <c r="B48" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="B48" s="2"/>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="B49" s="3">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
-      <c r="B50" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="B50" s="2"/>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" s="2"/>
-    </row>
-    <row r="52" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="B51" s="3">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
-      <c r="B52" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="B52" s="2"/>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B53" s="5"/>
-    </row>
-    <row r="54" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="5"/>
-      <c r="B54" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="A53" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="B53" s="3">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B55" s="5"/>
-    </row>
-    <row r="56" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5"/>
-      <c r="B56" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="A55" s="3">
+        <v>1.9E-3</v>
+      </c>
+      <c r="B55" s="3">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B57" s="5"/>
-    </row>
-    <row r="58" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="5"/>
-      <c r="B58" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="A57" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="B57" s="3">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="A59" s="3">
+        <v>1.9E-3</v>
+      </c>
+      <c r="B59" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Компьютерное моделирование/Компьютерное моделирование  Lab7.xlsx
+++ b/Компьютерное моделирование/Компьютерное моделирование  Lab7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\el5ah\Documents\Minig Univer\Компьютерное моделирование\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8ED605B-0805-45DE-9EF7-85A64BCBB960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4F2844-CBE9-4948-B432-2FCF6E7FF2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lab6" sheetId="3" r:id="rId1"/>
@@ -146,10 +146,10 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -167,7 +167,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -290,10 +290,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'lab6'!$A$2:$A$7</c:f>
+              <c:f>'lab6'!$A$2:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="1">
                   <c:v>1.1999999999999999E-3</c:v>
                 </c:pt>
@@ -302,16 +302,94 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.9999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.0000000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.6999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.9999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.2000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.7000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.2000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.2000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.9E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.9E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'lab6'!$B$2:$B$7</c:f>
+              <c:f>'lab6'!$B$2:$B$59</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="1">
                   <c:v>1.032</c:v>
                 </c:pt>
@@ -320,6 +398,81 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6259999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.08</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.6360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.056</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.4379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.9450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>2.54</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>0.44400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="General">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="General">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="General">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="General">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="General">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="General">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="General">
+                  <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -489,6 +642,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.76044444444444448"/>
+          <c:y val="6.7493827422515557E-2"/>
+          <c:w val="0.20622222222222222"/>
+          <c:h val="0.18397011694292931"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -522,12 +685,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>232410</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:ext cx="15386050" cy="4847590"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1" title="Chart">
@@ -757,8 +920,8 @@
   </sheetPr>
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
